--- a/AlquileresProp/prop.xlsx
+++ b/AlquileresProp/prop.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00120C10-71E5-4089-83C1-61D5DE468AC9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Num</t>
   </si>
@@ -70,9 +83,6 @@
     <t>UF-18</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>UF-21</t>
   </si>
   <si>
@@ -176,6 +186,12 @@
   </si>
   <si>
     <t>Para Alquilar</t>
+  </si>
+  <si>
+    <t>Moyano Casa</t>
+  </si>
+  <si>
+    <t>Casa</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1090,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1099,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1116,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -1139,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1165,13 +1181,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>179000</v>
@@ -1191,13 +1207,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1">
         <v>267000</v>
@@ -1217,13 +1233,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>150000</v>
@@ -1257,13 +1276,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>163000</v>
@@ -1275,7 +1294,7 @@
         <v>45689</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,19 +1302,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>133000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3">
         <v>45596</v>
@@ -1309,13 +1328,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>130000</v>
@@ -1327,7 +1346,7 @@
         <v>45505</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,13 +1354,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>100000</v>
@@ -1353,7 +1372,7 @@
         <v>45444</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1361,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
         <v>400000</v>
@@ -1376,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,25 +1406,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
         <v>170000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3">
         <v>45777</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,13 +1432,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>150000</v>
@@ -1431,7 +1450,7 @@
         <v>45505</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1439,13 +1458,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
         <v>134000</v>
@@ -1457,7 +1476,7 @@
         <v>45505</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,16 +1484,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1">
-        <v>290000</v>
+        <v>345000</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
@@ -1483,7 +1502,33 @@
         <v>45474</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45717</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/AlquileresProp/prop.xlsx
+++ b/AlquileresProp/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00120C10-71E5-4089-83C1-61D5DE468AC9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87879474-0D8C-4C51-84F4-933700EB6BE8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,6 +1238,9 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
+      <c r="E7" s="1">
+        <v>500000</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>50</v>
       </c>

--- a/AlquileresProp/prop.xlsx
+++ b/AlquileresProp/prop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\OneDrive - YPF\Documentos\GitHub\Web-HTML-CSS\AlquileresProp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87879474-0D8C-4C51-84F4-933700EB6BE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DB87C-F192-4F70-86AD-41628E5DE3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Num</t>
   </si>
@@ -44,21 +44,12 @@
     <t>UF</t>
   </si>
   <si>
-    <t>Actualizacion</t>
-  </si>
-  <si>
-    <t>Pagos</t>
-  </si>
-  <si>
     <t>UF-12</t>
   </si>
   <si>
     <t>Coch -3</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>UF-57</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>Local</t>
   </si>
   <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
     <t>Depto</t>
   </si>
   <si>
@@ -179,26 +167,41 @@
     <t>Molina</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>Fin Contrato</t>
   </si>
   <si>
-    <t>Para Alquilar</t>
-  </si>
-  <si>
     <t>Moyano Casa</t>
   </si>
   <si>
     <t>Casa</t>
+  </si>
+  <si>
+    <t>Inicio Contrato</t>
+  </si>
+  <si>
+    <t>1 Actualizacion</t>
+  </si>
+  <si>
+    <t>2 Actualizacion</t>
+  </si>
+  <si>
+    <t>3 Actualizacion</t>
+  </si>
+  <si>
+    <t>4 Actualizacion</t>
+  </si>
+  <si>
+    <t>Alquiler Inicial</t>
+  </si>
+  <si>
+    <t>Alquiler Actualizado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +332,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1059,23 +1068,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1086,455 +1098,670 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>80000</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
+      <c r="F2" s="1">
+        <v>80000</v>
       </c>
       <c r="G2" s="3">
         <v>45505</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
+      <c r="H2" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>25000</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
+      <c r="F4" s="1">
+        <v>25000</v>
       </c>
       <c r="G4" s="3">
         <v>45505</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
+      <c r="H4" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K4" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>179000</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
+      <c r="F5" s="1">
+        <v>179000</v>
       </c>
       <c r="G5" s="3">
         <v>45505</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+      <c r="H5" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>267000</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
+      <c r="F6" s="1">
+        <v>267000</v>
       </c>
       <c r="G6" s="3">
         <v>45748</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
+      <c r="H6" s="3">
+        <v>45748</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45748</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45748</v>
+      </c>
+      <c r="K6" s="3">
+        <v>45748</v>
+      </c>
+      <c r="L6" s="3">
+        <v>45748</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>500000</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F7" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45536</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45627</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1">
         <v>150000</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
+      <c r="F8" s="1">
+        <v>150000</v>
       </c>
       <c r="G8" s="3">
         <v>45505</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+      <c r="H8" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K8" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>163000</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
+      <c r="F9" s="1">
+        <v>163000</v>
       </c>
       <c r="G9" s="3">
         <v>45689</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
+      <c r="H9" s="3">
+        <v>45689</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45689</v>
+      </c>
+      <c r="J9" s="3">
+        <v>45689</v>
+      </c>
+      <c r="K9" s="3">
+        <v>45689</v>
+      </c>
+      <c r="L9" s="3">
+        <v>45689</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1">
         <v>133000</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
+      <c r="F10" s="1">
+        <v>133000</v>
       </c>
       <c r="G10" s="3">
         <v>45596</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
+      <c r="H10" s="3">
+        <v>45596</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45596</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45596</v>
+      </c>
+      <c r="K10" s="3">
+        <v>45596</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45596</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>130000</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
+      <c r="F11" s="1">
+        <v>130000</v>
       </c>
       <c r="G11" s="3">
         <v>45505</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
+      <c r="H11" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J11" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K11" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L11" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
         <v>100000</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
+      <c r="F12" s="1">
+        <v>100000</v>
       </c>
       <c r="G12" s="3">
         <v>45444</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
+      <c r="H12" s="3">
+        <v>45444</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45444</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45444</v>
+      </c>
+      <c r="K12" s="3">
+        <v>45444</v>
+      </c>
+      <c r="L12" s="3">
+        <v>45444</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
-        <v>400000</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>300000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45566</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45597</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45627</v>
+      </c>
+      <c r="J13" s="3">
+        <v>45658</v>
+      </c>
+      <c r="K13" s="3">
+        <v>45689</v>
+      </c>
+      <c r="L13" s="3">
+        <v>45717</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>170000</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
+      <c r="F14" s="1">
+        <v>170000</v>
       </c>
       <c r="G14" s="3">
         <v>45777</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
+      <c r="H14" s="3">
+        <v>45777</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45777</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45777</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45777</v>
+      </c>
+      <c r="L14" s="3">
+        <v>45777</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>150000</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
+      <c r="F15" s="1">
+        <v>150000</v>
       </c>
       <c r="G15" s="3">
         <v>45505</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
+      <c r="H15" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K15" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L15" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
         <v>134000</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>3</v>
+      <c r="F16" s="1">
+        <v>134000</v>
       </c>
       <c r="G16" s="3">
         <v>45505</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
+      <c r="H16" s="3">
+        <v>45505</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45505</v>
+      </c>
+      <c r="J16" s="3">
+        <v>45505</v>
+      </c>
+      <c r="K16" s="3">
+        <v>45505</v>
+      </c>
+      <c r="L16" s="3">
+        <v>45505</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
       </c>
       <c r="E17" s="1">
         <v>345000</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>3</v>
+      <c r="F17" s="1">
+        <v>345000</v>
       </c>
       <c r="G17" s="3">
         <v>45474</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
+      <c r="H17" s="3">
+        <v>45474</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45474</v>
+      </c>
+      <c r="J17" s="3">
+        <v>45474</v>
+      </c>
+      <c r="K17" s="3">
+        <v>45474</v>
+      </c>
+      <c r="L17" s="3">
+        <v>45474</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>1500000</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>3</v>
+      <c r="F18" s="1">
+        <v>1500000</v>
       </c>
       <c r="G18" s="3">
         <v>45717</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
+      <c r="H18" s="3">
+        <v>45717</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45717</v>
+      </c>
+      <c r="J18" s="3">
+        <v>45717</v>
+      </c>
+      <c r="K18" s="3">
+        <v>45717</v>
+      </c>
+      <c r="L18" s="3">
+        <v>45717</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
